--- a/Code/Results/Cases/Case_3_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_248/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.91961251425575</v>
+        <v>7.339718954694745</v>
       </c>
       <c r="C2">
-        <v>6.140671806140141</v>
+        <v>4.715058708800846</v>
       </c>
       <c r="D2">
-        <v>4.843754498765023</v>
+        <v>4.778158895845936</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.42628108148202</v>
+        <v>23.23220913150073</v>
       </c>
       <c r="G2">
-        <v>2.081382265161191</v>
+        <v>3.625157938841989</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.7658308473721</v>
+        <v>19.9244378371014</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.01160862422214</v>
+        <v>7.459753489657254</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.89551438497185</v>
+        <v>19.97233895529696</v>
       </c>
       <c r="N2">
-        <v>11.56290851658718</v>
+        <v>18.23930963375482</v>
       </c>
       <c r="O2">
-        <v>13.89797605487051</v>
+        <v>20.82901816582712</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.27814505277015</v>
+        <v>7.088982912507766</v>
       </c>
       <c r="C3">
-        <v>5.87103832390623</v>
+        <v>4.593031919265494</v>
       </c>
       <c r="D3">
-        <v>4.667808553204293</v>
+        <v>4.710141732314316</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.06133758867935</v>
+        <v>23.23899888251899</v>
       </c>
       <c r="G3">
-        <v>2.085689357629102</v>
+        <v>3.626736601674625</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.84825434106539</v>
+        <v>19.99254590037702</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.524403529192291</v>
+        <v>7.231855891570631</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.61316798343654</v>
+        <v>19.37435090634192</v>
       </c>
       <c r="N3">
-        <v>11.79389382420515</v>
+        <v>18.30203441647594</v>
       </c>
       <c r="O3">
-        <v>13.84212158048748</v>
+        <v>20.88060037760386</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.861883009210763</v>
+        <v>6.93145942094254</v>
       </c>
       <c r="C4">
-        <v>5.697955464761111</v>
+        <v>4.515568212319816</v>
       </c>
       <c r="D4">
-        <v>4.555346759061836</v>
+        <v>4.667188016133835</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.8489688785702</v>
+        <v>23.2490296597983</v>
       </c>
       <c r="G4">
-        <v>2.088407031771673</v>
+        <v>3.62775704211213</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.90840781652656</v>
+        <v>20.0379485376675</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.210557806881816</v>
+        <v>7.086621068083423</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.16011725553011</v>
+        <v>19.00575640732409</v>
       </c>
       <c r="N4">
-        <v>11.9374326593298</v>
+        <v>18.34223040595374</v>
       </c>
       <c r="O4">
-        <v>13.81917022389733</v>
+        <v>20.91647812397404</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.686666226127404</v>
+        <v>6.866471928604363</v>
       </c>
       <c r="C5">
-        <v>5.625593378440175</v>
+        <v>4.483389803048322</v>
       </c>
       <c r="D5">
-        <v>4.508447687375417</v>
+        <v>4.649394308489276</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.76539951183336</v>
+        <v>23.25459066298024</v>
       </c>
       <c r="G5">
-        <v>2.089533662478702</v>
+        <v>3.628185780750041</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.93521903571771</v>
+        <v>20.05735068175375</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.079055755741001</v>
+        <v>7.026154063975852</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.55422178625492</v>
+        <v>18.8554454971488</v>
       </c>
       <c r="N5">
-        <v>11.99642418315538</v>
+        <v>18.35903536310085</v>
       </c>
       <c r="O5">
-        <v>13.81256869527299</v>
+        <v>20.93215425380357</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.657235753556634</v>
+        <v>6.855635937669399</v>
       </c>
       <c r="C6">
-        <v>5.613469212841992</v>
+        <v>4.478010512000288</v>
       </c>
       <c r="D6">
-        <v>4.500596874665967</v>
+        <v>4.646422469692236</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.75170310865626</v>
+        <v>23.25560301699474</v>
       </c>
       <c r="G6">
-        <v>2.089721916936913</v>
+        <v>3.628257752905625</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.93980692967643</v>
+        <v>20.06062673274559</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.057004939540809</v>
+        <v>7.016037692216731</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.45276117329771</v>
+        <v>18.83048774234955</v>
       </c>
       <c r="N6">
-        <v>12.00625160463109</v>
+        <v>18.36185151595545</v>
       </c>
       <c r="O6">
-        <v>13.81163570582432</v>
+        <v>20.93482096139893</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.859542525997094</v>
+        <v>6.930586055322411</v>
       </c>
       <c r="C7">
-        <v>5.696986882604763</v>
+        <v>4.51513668099134</v>
       </c>
       <c r="D7">
-        <v>4.554718532962966</v>
+        <v>4.666949203940452</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.84782976446794</v>
+        <v>23.24909869327492</v>
       </c>
       <c r="G7">
-        <v>2.088422147371409</v>
+        <v>3.627762771940081</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.90876022809138</v>
+        <v>20.03820655829905</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.208798802667872</v>
+        <v>7.08581071088858</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.15200262271352</v>
+        <v>19.00372934610894</v>
       </c>
       <c r="N7">
-        <v>11.93822613844666</v>
+        <v>18.34245532152088</v>
       </c>
       <c r="O7">
-        <v>13.81907018794861</v>
+        <v>20.91668526620762</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.70310744617408</v>
+        <v>7.25406488773421</v>
       </c>
       <c r="C8">
-        <v>6.049300170922231</v>
+        <v>4.673526395771961</v>
       </c>
       <c r="D8">
-        <v>4.784033089267663</v>
+        <v>4.754959486843142</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.29803751742073</v>
+        <v>23.23333347963972</v>
       </c>
       <c r="G8">
-        <v>2.082852668897166</v>
+        <v>3.625691674367992</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.79220655904191</v>
+        <v>19.94717702154939</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.846720621838577</v>
+        <v>7.382304655990171</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.11879218851001</v>
+        <v>19.7665969259161</v>
       </c>
       <c r="N8">
-        <v>11.64224002978047</v>
+        <v>18.26058887934326</v>
       </c>
       <c r="O8">
-        <v>13.87630273152448</v>
+        <v>20.84592958682119</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.1780864254195</v>
+        <v>7.85603473322446</v>
       </c>
       <c r="C9">
-        <v>6.677996139812341</v>
+        <v>4.962900089696745</v>
       </c>
       <c r="D9">
-        <v>5.196805298159923</v>
+        <v>4.91768910515078</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.27235458758376</v>
+        <v>23.24892274205633</v>
       </c>
       <c r="G9">
-        <v>2.072471288236297</v>
+        <v>3.622034047223297</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.64419852657733</v>
+        <v>19.79715163208351</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.97773623626719</v>
+        <v>7.919631377556419</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.56763248703754</v>
+        <v>21.2408181164338</v>
       </c>
       <c r="N9">
-        <v>11.07183963956926</v>
+        <v>18.11332470127791</v>
       </c>
       <c r="O9">
-        <v>14.0829943428959</v>
+        <v>20.74063559145747</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.15084824642436</v>
+        <v>8.273786535156253</v>
       </c>
       <c r="C10">
-        <v>7.098949624837123</v>
+        <v>5.161254345319088</v>
       </c>
       <c r="D10">
-        <v>5.475374492307701</v>
+        <v>5.030716853994358</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.04213180386743</v>
+        <v>23.28866781224117</v>
       </c>
       <c r="G10">
-        <v>2.065108801345582</v>
+        <v>3.61959022111111</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.59156463619697</v>
+        <v>19.70435437669943</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.73171594557617</v>
+        <v>8.285164122913709</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.41637532722718</v>
+        <v>22.29779543450976</v>
       </c>
       <c r="N10">
-        <v>10.65286158799088</v>
+        <v>18.01311439301302</v>
       </c>
       <c r="O10">
-        <v>14.2984795470311</v>
+        <v>20.68378141148171</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.56899663640383</v>
+        <v>8.45767001832388</v>
       </c>
       <c r="C11">
-        <v>7.280938817740247</v>
+        <v>5.248159553547413</v>
       </c>
       <c r="D11">
-        <v>5.5962977656421</v>
+        <v>5.080615867960413</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.40378792763894</v>
+        <v>23.31286097325441</v>
       </c>
       <c r="G11">
-        <v>2.061798924364243</v>
+        <v>3.618530738040646</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.58143227983495</v>
+        <v>19.66593577416839</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.05727466913405</v>
+        <v>8.444692431981149</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.15479079705837</v>
+        <v>22.77058408787295</v>
       </c>
       <c r="N11">
-        <v>10.46052512664027</v>
+        <v>17.96923647912542</v>
       </c>
       <c r="O11">
-        <v>14.41162728056086</v>
+        <v>20.66238965807381</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.72380455056385</v>
+        <v>8.52635765861449</v>
       </c>
       <c r="C12">
-        <v>7.348430559989963</v>
+        <v>5.280572455084932</v>
       </c>
       <c r="D12">
-        <v>5.641215983146776</v>
+        <v>5.09928496608867</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.54238579823236</v>
+        <v>23.32289709715491</v>
       </c>
       <c r="G12">
-        <v>2.060549336012164</v>
+        <v>3.618137004967607</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.57972486430948</v>
+        <v>19.65193454630322</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.17798559530524</v>
+        <v>8.504101024628881</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.81365938304148</v>
+        <v>22.94828634475358</v>
       </c>
       <c r="N12">
-        <v>10.38725054439913</v>
+        <v>17.95286492115574</v>
       </c>
       <c r="O12">
-        <v>14.45675787102419</v>
+        <v>20.65493350872615</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.69062174552214</v>
+        <v>8.51160745804761</v>
       </c>
       <c r="C13">
-        <v>7.333959309703308</v>
+        <v>5.273614090634261</v>
       </c>
       <c r="D13">
-        <v>5.631581515439784</v>
+        <v>5.095274446575558</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.51246285873299</v>
+        <v>23.32069681477848</v>
       </c>
       <c r="G13">
-        <v>2.060818323059482</v>
+        <v>3.618221470823491</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.57999551301021</v>
+        <v>19.65492560991379</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.1521037931695</v>
+        <v>8.491351295837781</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.67169034182122</v>
+        <v>22.91007688404012</v>
       </c>
       <c r="N13">
-        <v>10.40305472240866</v>
+        <v>17.95637999996776</v>
       </c>
       <c r="O13">
-        <v>14.44693480743994</v>
+        <v>20.65651064103329</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.58180384992481</v>
+        <v>8.463340250599689</v>
       </c>
       <c r="C14">
-        <v>7.286520287918197</v>
+        <v>5.250836222978581</v>
       </c>
       <c r="D14">
-        <v>5.600010941278253</v>
+        <v>5.082156372899343</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.41515740242768</v>
+        <v>23.31366914908941</v>
       </c>
       <c r="G14">
-        <v>2.061696056249708</v>
+        <v>3.618498195898359</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.58124828328175</v>
+        <v>19.66477291337851</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.06725755297313</v>
+        <v>8.449600240013856</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.20896909458408</v>
+        <v>22.78523141802902</v>
       </c>
       <c r="N14">
-        <v>10.45450688876791</v>
+        <v>17.96788469907543</v>
       </c>
       <c r="O14">
-        <v>14.41529378051903</v>
+        <v>20.66176331294975</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.51468820459774</v>
+        <v>8.433650459151343</v>
       </c>
       <c r="C15">
-        <v>7.257275308173347</v>
+        <v>5.23681900174686</v>
       </c>
       <c r="D15">
-        <v>5.580558179589412</v>
+        <v>5.074091427800031</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.35576968329818</v>
+        <v>23.30947826795825</v>
       </c>
       <c r="G15">
-        <v>2.062234124090017</v>
+        <v>3.618668669654567</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.58229734843875</v>
+        <v>19.67087595315589</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.01494991747697</v>
+        <v>8.423895280887978</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.92569389672266</v>
+        <v>22.70858147089843</v>
       </c>
       <c r="N15">
-        <v>10.48595890973496</v>
+        <v>17.9749633955031</v>
       </c>
       <c r="O15">
-        <v>14.39621351983524</v>
+        <v>20.66506469148869</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.12302837658305</v>
+        <v>8.261640178443496</v>
       </c>
       <c r="C16">
-        <v>7.086860236209852</v>
+        <v>5.155506375359437</v>
       </c>
       <c r="D16">
-        <v>5.467351918491055</v>
+        <v>5.027424572886624</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.01872688722329</v>
+        <v>23.28720939106404</v>
       </c>
       <c r="G16">
-        <v>2.065325750940091</v>
+        <v>3.619660508327134</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.59251682035513</v>
+        <v>19.7069416058711</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.7100837806589</v>
+        <v>8.274600007160139</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.30270316297514</v>
+        <v>22.26672035603697</v>
       </c>
       <c r="N16">
-        <v>10.66538096718655</v>
+        <v>18.01601615655191</v>
       </c>
       <c r="O16">
-        <v>14.2913986206338</v>
+        <v>20.68526951881478</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.87649622375169</v>
+        <v>8.154496161545358</v>
       </c>
       <c r="C17">
-        <v>6.979843214969593</v>
+        <v>5.104758343956981</v>
       </c>
       <c r="D17">
-        <v>5.396391375524251</v>
+        <v>4.998401161499554</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.81489296112449</v>
+        <v>23.2751110392194</v>
       </c>
       <c r="G17">
-        <v>2.067231236553945</v>
+        <v>3.620282317083106</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.60242325667535</v>
+        <v>19.73003971988568</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.51854957777559</v>
+        <v>8.181259708885042</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.30536026893992</v>
+        <v>21.99346326015997</v>
       </c>
       <c r="N17">
-        <v>10.7748832483298</v>
+        <v>18.0416370911264</v>
       </c>
       <c r="O17">
-        <v>14.23104771527316</v>
+        <v>20.69881087232133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.73240617162676</v>
+        <v>8.092293630243169</v>
       </c>
       <c r="C18">
-        <v>6.9173988707515</v>
+        <v>5.075257200191944</v>
       </c>
       <c r="D18">
-        <v>5.355033307243129</v>
+        <v>4.981565263553479</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.6987329120868</v>
+        <v>23.26872808421253</v>
       </c>
       <c r="G18">
-        <v>2.068331057870666</v>
+        <v>3.620644883131887</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.60941211989964</v>
+        <v>19.74368230221713</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.40674754753087</v>
+        <v>8.126938642171133</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.73037677187207</v>
+        <v>21.83554612216476</v>
       </c>
       <c r="N18">
-        <v>10.83771590358524</v>
+        <v>18.05653445958252</v>
       </c>
       <c r="O18">
-        <v>14.19775213463171</v>
+        <v>20.70702030440664</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.68322710022767</v>
+        <v>8.071135923891285</v>
       </c>
       <c r="C19">
-        <v>6.896104891668807</v>
+        <v>5.065215566543866</v>
       </c>
       <c r="D19">
-        <v>5.340937980468316</v>
+        <v>4.975840720525965</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.65958904825602</v>
+        <v>23.266665918419</v>
       </c>
       <c r="G19">
-        <v>2.068704147925491</v>
+        <v>3.62076848767007</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.6119958973149</v>
+        <v>19.74836274858886</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.36861409153254</v>
+        <v>8.108438513181177</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.53540558150407</v>
+        <v>21.78195549438026</v>
       </c>
       <c r="N19">
-        <v>10.85896923553443</v>
+        <v>18.06160613300666</v>
       </c>
       <c r="O19">
-        <v>14.18671887775958</v>
+        <v>20.70987210330563</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.90297734138251</v>
+        <v>8.165961910614145</v>
       </c>
       <c r="C20">
-        <v>6.991327963501669</v>
+        <v>5.11019300627417</v>
       </c>
       <c r="D20">
-        <v>5.40400176285072</v>
+        <v>5.001505552480732</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.83647977159402</v>
+        <v>23.27633937539846</v>
       </c>
       <c r="G20">
-        <v>2.067028009558484</v>
+        <v>3.620215615765106</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.60123407604323</v>
+        <v>19.72754391227599</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.53910855413856</v>
+        <v>8.191261808838824</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.41165257368348</v>
+        <v>22.02263058179232</v>
       </c>
       <c r="N20">
-        <v>10.76324331575609</v>
+        <v>18.03889305947924</v>
       </c>
       <c r="O20">
-        <v>14.23732477590775</v>
+        <v>20.69732580947697</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.61386255725095</v>
+        <v>8.477543590972211</v>
       </c>
       <c r="C21">
-        <v>7.300493405666453</v>
+        <v>5.257540235009735</v>
       </c>
       <c r="D21">
-        <v>5.609307998224736</v>
+        <v>5.086015682437554</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.44369360843925</v>
+        <v>23.31570964495079</v>
       </c>
       <c r="G21">
-        <v>2.061438158894894</v>
+        <v>3.618416712614002</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.58082134019229</v>
+        <v>19.66186566422813</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.09224927845442</v>
+        <v>8.461890934463639</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.34484408809067</v>
+        <v>22.82193904743495</v>
       </c>
       <c r="N21">
-        <v>10.43940787349324</v>
+        <v>17.96449887914421</v>
       </c>
       <c r="O21">
-        <v>14.42452463099615</v>
+        <v>20.66020297526054</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.05783625991786</v>
+        <v>8.675648881505408</v>
       </c>
       <c r="C22">
-        <v>7.494219990708357</v>
+        <v>5.350940810055409</v>
       </c>
       <c r="D22">
-        <v>5.738379068621727</v>
+        <v>5.139923725648742</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.85015645327222</v>
+        <v>23.34653613690843</v>
       </c>
       <c r="G22">
-        <v>2.057805752514274</v>
+        <v>3.617284548950722</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.57996472525486</v>
+        <v>19.62213042739282</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.43873603935656</v>
+        <v>8.632914782948765</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.26678848573011</v>
+        <v>23.33649626911952</v>
       </c>
       <c r="N22">
-        <v>10.22506436554959</v>
+        <v>17.91729978576715</v>
       </c>
       <c r="O22">
-        <v>14.56023891651758</v>
+        <v>20.63969790474878</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.82277970676967</v>
+        <v>8.57044049969887</v>
       </c>
       <c r="C23">
-        <v>7.391607778876979</v>
+        <v>5.301361883950664</v>
       </c>
       <c r="D23">
-        <v>5.669972695647916</v>
+        <v>5.111275789669365</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.63233500758021</v>
+        <v>23.32961886999243</v>
       </c>
       <c r="G23">
-        <v>2.059743262645892</v>
+        <v>3.617884836703282</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.57923023492225</v>
+        <v>19.64304562487643</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.25520759371721</v>
+        <v>8.542180245384836</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.23959626976601</v>
+        <v>23.06263851299598</v>
       </c>
       <c r="N23">
-        <v>10.33978735488187</v>
+        <v>17.94236126085894</v>
       </c>
       <c r="O23">
-        <v>14.48654468555581</v>
+        <v>20.65029766524743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.891012562458</v>
+        <v>8.16078012217435</v>
       </c>
       <c r="C24">
-        <v>6.986138566475211</v>
+        <v>5.107737007698498</v>
       </c>
       <c r="D24">
-        <v>5.400562854071264</v>
+        <v>5.000102523751027</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.82671717567597</v>
+        <v>23.27578226093322</v>
       </c>
       <c r="G24">
-        <v>2.067119874853856</v>
+        <v>3.620245755605317</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.60176768634608</v>
+        <v>19.72867113580477</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.52981908912556</v>
+        <v>8.186741908169179</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.36360296754644</v>
+        <v>22.00944656992778</v>
       </c>
       <c r="N24">
-        <v>10.76850609454633</v>
+        <v>18.04013311418004</v>
       </c>
       <c r="O24">
-        <v>14.2344825613136</v>
+        <v>20.69799588481488</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.79843897249739</v>
+        <v>7.697179048485919</v>
       </c>
       <c r="C25">
-        <v>6.514899667488498</v>
+        <v>4.887032140277149</v>
       </c>
       <c r="D25">
-        <v>5.08932514307038</v>
+        <v>4.874776980054038</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.99918206603011</v>
+        <v>23.23972926682939</v>
       </c>
       <c r="G25">
-        <v>2.075227964269749</v>
+        <v>3.622980586668263</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.6749143656213</v>
+        <v>19.83468169009645</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.68503072575732</v>
+        <v>7.779251758285141</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.12666080717963</v>
+        <v>20.84572451798325</v>
       </c>
       <c r="N25">
-        <v>11.22562934786728</v>
+        <v>18.15175352684151</v>
       </c>
       <c r="O25">
-        <v>14.01634017293567</v>
+        <v>20.76552668531491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_248/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.339718954694745</v>
+        <v>10.91961251425575</v>
       </c>
       <c r="C2">
-        <v>4.715058708800846</v>
+        <v>6.140671806140129</v>
       </c>
       <c r="D2">
-        <v>4.778158895845936</v>
+        <v>4.84375449876481</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.23220913150073</v>
+        <v>17.42628108148207</v>
       </c>
       <c r="G2">
-        <v>3.625157938841989</v>
+        <v>2.081382265161058</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.9244378371014</v>
+        <v>12.76583084737209</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.459753489657254</v>
+        <v>10.01160862422214</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97233895529696</v>
+        <v>29.89551438497184</v>
       </c>
       <c r="N2">
-        <v>18.23930963375482</v>
+        <v>11.56290851658718</v>
       </c>
       <c r="O2">
-        <v>20.82901816582712</v>
+        <v>13.8979760548705</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.088982912507766</v>
+        <v>10.27814505277016</v>
       </c>
       <c r="C3">
-        <v>4.593031919265494</v>
+        <v>5.871038323906411</v>
       </c>
       <c r="D3">
-        <v>4.710141732314316</v>
+        <v>4.66780855320427</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.23899888251899</v>
+        <v>17.0613375886793</v>
       </c>
       <c r="G3">
-        <v>3.626736601674625</v>
+        <v>2.085689357629236</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.99254590037702</v>
+        <v>12.84825434106535</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.231855891570631</v>
+        <v>9.524403529192336</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.37435090634192</v>
+        <v>27.6131679834366</v>
       </c>
       <c r="N3">
-        <v>18.30203441647594</v>
+        <v>11.79389382420511</v>
       </c>
       <c r="O3">
-        <v>20.88060037760386</v>
+        <v>13.84212158048742</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.93145942094254</v>
+        <v>9.861883009210771</v>
       </c>
       <c r="C4">
-        <v>4.515568212319816</v>
+        <v>5.697955464760994</v>
       </c>
       <c r="D4">
-        <v>4.667188016133835</v>
+        <v>4.555346759061836</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.2490296597983</v>
+        <v>16.84896887857028</v>
       </c>
       <c r="G4">
-        <v>3.62775704211213</v>
+        <v>2.08840703177154</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.0379485376675</v>
+        <v>12.9084078165266</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.086621068083423</v>
+        <v>9.210557806881834</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.00575640732409</v>
+        <v>26.16011725553006</v>
       </c>
       <c r="N4">
-        <v>18.34223040595374</v>
+        <v>11.93743265932984</v>
       </c>
       <c r="O4">
-        <v>20.91647812397404</v>
+        <v>13.81917022389738</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.866471928604363</v>
+        <v>9.686666226127523</v>
       </c>
       <c r="C5">
-        <v>4.483389803048322</v>
+        <v>5.625593378440167</v>
       </c>
       <c r="D5">
-        <v>4.649394308489276</v>
+        <v>4.508447687375388</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.25459066298024</v>
+        <v>16.76539951183317</v>
       </c>
       <c r="G5">
-        <v>3.628185780750041</v>
+        <v>2.089533662478568</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.05735068175375</v>
+        <v>12.93521903571752</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.026154063975852</v>
+        <v>9.07905575574107</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.8554454971488</v>
+        <v>25.55422178625495</v>
       </c>
       <c r="N5">
-        <v>18.35903536310085</v>
+        <v>11.99642418315525</v>
       </c>
       <c r="O5">
-        <v>20.93215425380357</v>
+        <v>13.81256869527275</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.855635937669399</v>
+        <v>9.657235753556668</v>
       </c>
       <c r="C6">
-        <v>4.478010512000288</v>
+        <v>5.613469212841673</v>
       </c>
       <c r="D6">
-        <v>4.646422469692236</v>
+        <v>4.500596874665967</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.25560301699474</v>
+        <v>16.7517031086562</v>
       </c>
       <c r="G6">
-        <v>3.628257752905625</v>
+        <v>2.089721916936781</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.06062673274559</v>
+        <v>12.93980692967632</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.016037692216731</v>
+        <v>9.057004939540723</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.83048774234955</v>
+        <v>25.45276117329773</v>
       </c>
       <c r="N6">
-        <v>18.36185151595545</v>
+        <v>12.00625160463096</v>
       </c>
       <c r="O6">
-        <v>20.93482096139893</v>
+        <v>13.81163570582427</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.930586055322411</v>
+        <v>9.859542525997183</v>
       </c>
       <c r="C7">
-        <v>4.51513668099134</v>
+        <v>5.696986882605043</v>
       </c>
       <c r="D7">
-        <v>4.666949203940452</v>
+        <v>4.554718532962978</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.24909869327492</v>
+        <v>16.84782976446779</v>
       </c>
       <c r="G7">
-        <v>3.627762771940081</v>
+        <v>2.088422147371542</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.03820655829905</v>
+        <v>12.90876022809125</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.08581071088858</v>
+        <v>9.208798802667991</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.00372934610894</v>
+        <v>26.15200262271361</v>
       </c>
       <c r="N7">
-        <v>18.34245532152088</v>
+        <v>11.93822613844663</v>
       </c>
       <c r="O7">
-        <v>20.91668526620762</v>
+        <v>13.81907018794847</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.25406488773421</v>
+        <v>10.70310744617414</v>
       </c>
       <c r="C8">
-        <v>4.673526395771961</v>
+        <v>6.049300170922117</v>
       </c>
       <c r="D8">
-        <v>4.754959486843142</v>
+        <v>4.784033089267713</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.23333347963972</v>
+        <v>17.29803751742057</v>
       </c>
       <c r="G8">
-        <v>3.625691674367992</v>
+        <v>2.082852668897031</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.94717702154939</v>
+        <v>12.79220655904183</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.382304655990171</v>
+        <v>9.846720621838625</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.7665969259161</v>
+        <v>29.11879218851007</v>
       </c>
       <c r="N8">
-        <v>18.26058887934326</v>
+        <v>11.64224002978041</v>
       </c>
       <c r="O8">
-        <v>20.84592958682119</v>
+        <v>13.87630273152437</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.85603473322446</v>
+        <v>12.17808642541958</v>
       </c>
       <c r="C9">
-        <v>4.962900089696745</v>
+        <v>6.677996139812341</v>
       </c>
       <c r="D9">
-        <v>4.91768910515078</v>
+        <v>5.196805298159936</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.24892274205633</v>
+        <v>18.27235458758365</v>
       </c>
       <c r="G9">
-        <v>3.622034047223297</v>
+        <v>2.072471288236295</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.79715163208351</v>
+        <v>12.64419852657718</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.919631377556419</v>
+        <v>10.97773623626723</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.2408181164338</v>
+        <v>34.56763248703743</v>
       </c>
       <c r="N9">
-        <v>18.11332470127791</v>
+        <v>11.07183963956916</v>
       </c>
       <c r="O9">
-        <v>20.74063559145747</v>
+        <v>14.08299434289575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.273786535156253</v>
+        <v>13.15084824642432</v>
       </c>
       <c r="C10">
-        <v>5.161254345319088</v>
+        <v>7.098949624837017</v>
       </c>
       <c r="D10">
-        <v>5.030716853994358</v>
+        <v>5.475374492307783</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.28866781224117</v>
+        <v>19.04213180386743</v>
       </c>
       <c r="G10">
-        <v>3.61959022111111</v>
+        <v>2.065108801345315</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.70435437669943</v>
+        <v>12.59156463619703</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.285164122913709</v>
+        <v>11.73171594557614</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.29779543450976</v>
+        <v>38.41637532722712</v>
       </c>
       <c r="N10">
-        <v>18.01311439301302</v>
+        <v>10.65286158799088</v>
       </c>
       <c r="O10">
-        <v>20.68378141148171</v>
+        <v>14.29847954703114</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.45767001832388</v>
+        <v>13.56899663640388</v>
       </c>
       <c r="C11">
-        <v>5.248159553547413</v>
+        <v>7.280938817740284</v>
       </c>
       <c r="D11">
-        <v>5.080615867960413</v>
+        <v>5.596297765642015</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.31286097325441</v>
+        <v>19.40378792763889</v>
       </c>
       <c r="G11">
-        <v>3.618530738040646</v>
+        <v>2.061798924364377</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.66593577416839</v>
+        <v>12.58143227983485</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.444692431981149</v>
+        <v>12.05727466913413</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.77058408787295</v>
+        <v>40.15479079705842</v>
       </c>
       <c r="N11">
-        <v>17.96923647912542</v>
+        <v>10.46052512664017</v>
       </c>
       <c r="O11">
-        <v>20.66238965807381</v>
+        <v>14.41162728056075</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.52635765861449</v>
+        <v>13.72380455056384</v>
       </c>
       <c r="C12">
-        <v>5.280572455084932</v>
+        <v>7.348430559989934</v>
       </c>
       <c r="D12">
-        <v>5.09928496608867</v>
+        <v>5.641215983146861</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.32289709715491</v>
+        <v>19.54238579823239</v>
       </c>
       <c r="G12">
-        <v>3.618137004967607</v>
+        <v>2.060549336012432</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.65193454630322</v>
+        <v>12.57972486430952</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.504101024628881</v>
+        <v>12.17798559530519</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.94828634475358</v>
+        <v>40.81365938304145</v>
       </c>
       <c r="N12">
-        <v>17.95286492115574</v>
+        <v>10.3872505443991</v>
       </c>
       <c r="O12">
-        <v>20.65493350872615</v>
+        <v>14.45675787102424</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.51160745804761</v>
+        <v>13.69062174552219</v>
       </c>
       <c r="C13">
-        <v>5.273614090634261</v>
+        <v>7.33395930970315</v>
       </c>
       <c r="D13">
-        <v>5.095274446575558</v>
+        <v>5.631581515439926</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.32069681477848</v>
+        <v>19.51246285873294</v>
       </c>
       <c r="G13">
-        <v>3.618221470823491</v>
+        <v>2.060818323059617</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.65492560991379</v>
+        <v>12.57999551301014</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.491351295837781</v>
+        <v>12.15210379316951</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.91007688404012</v>
+        <v>40.67169034182122</v>
       </c>
       <c r="N13">
-        <v>17.95637999996776</v>
+        <v>10.40305472240863</v>
       </c>
       <c r="O13">
-        <v>20.65651064103329</v>
+        <v>14.4469348074399</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.463340250599689</v>
+        <v>13.58180384992482</v>
       </c>
       <c r="C14">
-        <v>5.250836222978581</v>
+        <v>7.286520287918435</v>
       </c>
       <c r="D14">
-        <v>5.082156372899343</v>
+        <v>5.600010941278277</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.31366914908941</v>
+        <v>19.41515740242762</v>
       </c>
       <c r="G14">
-        <v>3.618498195898359</v>
+        <v>2.061696056249841</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.66477291337851</v>
+        <v>12.58124828328174</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.449600240013856</v>
+        <v>12.06725755297319</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.78523141802902</v>
+        <v>40.20896909458415</v>
       </c>
       <c r="N14">
-        <v>17.96788469907543</v>
+        <v>10.45450688876791</v>
       </c>
       <c r="O14">
-        <v>20.66176331294975</v>
+        <v>14.41529378051897</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.433650459151343</v>
+        <v>13.51468820459784</v>
       </c>
       <c r="C15">
-        <v>5.23681900174686</v>
+        <v>7.257275308173426</v>
       </c>
       <c r="D15">
-        <v>5.074091427800031</v>
+        <v>5.580558179589429</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.30947826795825</v>
+        <v>19.35576968329809</v>
       </c>
       <c r="G15">
-        <v>3.618668669654567</v>
+        <v>2.062234124089883</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.67087595315589</v>
+        <v>12.58229734843864</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.423895280887978</v>
+        <v>12.01494991747707</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.70858147089843</v>
+        <v>39.92569389672276</v>
       </c>
       <c r="N15">
-        <v>17.9749633955031</v>
+        <v>10.48595890973486</v>
       </c>
       <c r="O15">
-        <v>20.66506469148869</v>
+        <v>14.39621351983512</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.261640178443496</v>
+        <v>13.12302837658309</v>
       </c>
       <c r="C16">
-        <v>5.155506375359437</v>
+        <v>7.086860236209651</v>
       </c>
       <c r="D16">
-        <v>5.027424572886624</v>
+        <v>5.467351918491048</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.28720939106404</v>
+        <v>19.0187268872233</v>
       </c>
       <c r="G16">
-        <v>3.619660508327134</v>
+        <v>2.065325750940359</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.7069416058711</v>
+        <v>12.5925168203551</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.274600007160139</v>
+        <v>11.71008378065888</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.26672035603697</v>
+        <v>38.30270316297543</v>
       </c>
       <c r="N16">
-        <v>18.01601615655191</v>
+        <v>10.66538096718655</v>
       </c>
       <c r="O16">
-        <v>20.68526951881478</v>
+        <v>14.29139862063384</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.154496161545358</v>
+        <v>12.87649622375169</v>
       </c>
       <c r="C17">
-        <v>5.104758343956981</v>
+        <v>6.979843214969593</v>
       </c>
       <c r="D17">
-        <v>4.998401161499554</v>
+        <v>5.39639137552415</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.2751110392194</v>
+        <v>18.81489296112449</v>
       </c>
       <c r="G17">
-        <v>3.620282317083106</v>
+        <v>2.067231236553946</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.73003971988568</v>
+        <v>12.6024232566753</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.181259708885042</v>
+        <v>11.51854957777559</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.99346326015997</v>
+        <v>37.3053602689398</v>
       </c>
       <c r="N17">
-        <v>18.0416370911264</v>
+        <v>10.77488324832977</v>
       </c>
       <c r="O17">
-        <v>20.69881087232133</v>
+        <v>14.23104771527312</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.092293630243169</v>
+        <v>12.73240617162682</v>
       </c>
       <c r="C18">
-        <v>5.075257200191944</v>
+        <v>6.917398870751758</v>
       </c>
       <c r="D18">
-        <v>4.981565263553479</v>
+        <v>5.355033307243053</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.26872808421253</v>
+        <v>18.69873291208665</v>
       </c>
       <c r="G18">
-        <v>3.620644883131887</v>
+        <v>2.068331057870934</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.74368230221713</v>
+        <v>12.6094121198995</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.126938642171133</v>
+        <v>11.40674754753092</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.83554612216476</v>
+        <v>36.73037677187205</v>
       </c>
       <c r="N18">
-        <v>18.05653445958252</v>
+        <v>10.83771590358514</v>
       </c>
       <c r="O18">
-        <v>20.70702030440664</v>
+        <v>14.19775213463155</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.071135923891285</v>
+        <v>12.68322710022777</v>
       </c>
       <c r="C19">
-        <v>5.065215566543866</v>
+        <v>6.896104891668947</v>
       </c>
       <c r="D19">
-        <v>4.975840720525965</v>
+        <v>5.340937980468213</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.266665918419</v>
+        <v>18.65958904825601</v>
       </c>
       <c r="G19">
-        <v>3.62076848767007</v>
+        <v>2.068704147925625</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.74836274858886</v>
+        <v>12.61199589731486</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.108438513181177</v>
+        <v>11.36861409153262</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.78195549438026</v>
+        <v>36.53540558150411</v>
       </c>
       <c r="N19">
-        <v>18.06160613300666</v>
+        <v>10.8589692355344</v>
       </c>
       <c r="O19">
-        <v>20.70987210330563</v>
+        <v>14.18671887775954</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.165961910614145</v>
+        <v>12.90297734138255</v>
       </c>
       <c r="C20">
-        <v>5.11019300627417</v>
+        <v>6.99132796350182</v>
       </c>
       <c r="D20">
-        <v>5.001505552480732</v>
+        <v>5.404001762850612</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.27633937539846</v>
+        <v>18.83647977159399</v>
       </c>
       <c r="G20">
-        <v>3.620215615765106</v>
+        <v>2.067028009558484</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.72754391227599</v>
+        <v>12.60123407604321</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.191261808838824</v>
+        <v>11.53910855413859</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.02263058179232</v>
+        <v>37.41165257368354</v>
       </c>
       <c r="N20">
-        <v>18.03889305947924</v>
+        <v>10.76324331575606</v>
       </c>
       <c r="O20">
-        <v>20.69732580947697</v>
+        <v>14.2373247759077</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.477543590972211</v>
+        <v>13.61386255725095</v>
       </c>
       <c r="C21">
-        <v>5.257540235009735</v>
+        <v>7.300493405666531</v>
       </c>
       <c r="D21">
-        <v>5.086015682437554</v>
+        <v>5.60930799822473</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.31570964495079</v>
+        <v>19.44369360843919</v>
       </c>
       <c r="G21">
-        <v>3.618416712614002</v>
+        <v>2.061438158895028</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.66186566422813</v>
+        <v>12.58082134019226</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.461890934463639</v>
+        <v>12.09224927845443</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.82193904743495</v>
+        <v>40.3448440880908</v>
       </c>
       <c r="N21">
-        <v>17.96449887914421</v>
+        <v>10.43940787349317</v>
       </c>
       <c r="O21">
-        <v>20.66020297526054</v>
+        <v>14.4245246309961</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.675648881505408</v>
+        <v>14.05783625991788</v>
       </c>
       <c r="C22">
-        <v>5.350940810055409</v>
+        <v>7.494219990708499</v>
       </c>
       <c r="D22">
-        <v>5.139923725648742</v>
+        <v>5.738379068621713</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.34653613690843</v>
+        <v>19.85015645327221</v>
       </c>
       <c r="G22">
-        <v>3.617284548950722</v>
+        <v>2.057805752514407</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.62213042739282</v>
+        <v>12.57996472525487</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.632914782948765</v>
+        <v>12.43873603935659</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.33649626911952</v>
+        <v>42.26678848573011</v>
       </c>
       <c r="N22">
-        <v>17.91729978576715</v>
+        <v>10.22506436554959</v>
       </c>
       <c r="O22">
-        <v>20.63969790474878</v>
+        <v>14.56023891651755</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.57044049969887</v>
+        <v>13.82277970676965</v>
       </c>
       <c r="C23">
-        <v>5.301361883950664</v>
+        <v>7.391607778876954</v>
       </c>
       <c r="D23">
-        <v>5.111275789669365</v>
+        <v>5.669972695647743</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.32961886999243</v>
+        <v>19.63233500758031</v>
       </c>
       <c r="G23">
-        <v>3.617884836703282</v>
+        <v>2.059743262645893</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.64304562487643</v>
+        <v>12.57923023492229</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.542180245384836</v>
+        <v>12.25520759371718</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.06263851299598</v>
+        <v>41.23959626976602</v>
       </c>
       <c r="N23">
-        <v>17.94236126085894</v>
+        <v>10.33978735488188</v>
       </c>
       <c r="O23">
-        <v>20.65029766524743</v>
+        <v>14.48654468555585</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.16078012217435</v>
+        <v>12.891012562458</v>
       </c>
       <c r="C24">
-        <v>5.107737007698498</v>
+        <v>6.986138566475359</v>
       </c>
       <c r="D24">
-        <v>5.000102523751027</v>
+        <v>5.400562854071253</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.27578226093322</v>
+        <v>18.826717175676</v>
       </c>
       <c r="G24">
-        <v>3.620245755605317</v>
+        <v>2.067119874853856</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.72867113580477</v>
+        <v>12.60176768634611</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.186741908169179</v>
+        <v>11.52981908912555</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.00944656992778</v>
+        <v>37.36360296754641</v>
       </c>
       <c r="N24">
-        <v>18.04013311418004</v>
+        <v>10.76850609454637</v>
       </c>
       <c r="O24">
-        <v>20.69799588481488</v>
+        <v>14.23448256131364</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.697179048485919</v>
+        <v>11.79843897249739</v>
       </c>
       <c r="C25">
-        <v>4.887032140277149</v>
+        <v>6.514899667488584</v>
       </c>
       <c r="D25">
-        <v>4.874776980054038</v>
+        <v>5.089325143070321</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.23972926682939</v>
+        <v>17.99918206603007</v>
       </c>
       <c r="G25">
-        <v>3.622980586668263</v>
+        <v>2.075227964269751</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.83468169009645</v>
+        <v>12.67491436562122</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.779251758285141</v>
+        <v>10.68503072575732</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84572451798325</v>
+        <v>33.12666080717964</v>
       </c>
       <c r="N25">
-        <v>18.15175352684151</v>
+        <v>11.22562934786722</v>
       </c>
       <c r="O25">
-        <v>20.76552668531491</v>
+        <v>14.01634017293562</v>
       </c>
     </row>
   </sheetData>
